--- a/두산_기록.xlsx
+++ b/두산_기록.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>박세혁</t>
+          <t>박유연</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -583,76 +583,76 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0.235</v>
       </c>
       <c r="E2" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
         <v>5</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>21</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>32</v>
-      </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.309</v>
+        <v>0.235</v>
       </c>
       <c r="W2" t="n">
-        <v>0.321</v>
+        <v>0.316</v>
       </c>
       <c r="X2" t="n">
-        <v>0.63</v>
+        <v>0.551</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.347</v>
+        <v>0.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="3">
@@ -661,7 +661,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>박유연</t>
+          <t>박세혁</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -670,76 +670,76 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.235</v>
+        <v>0.233</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="G3" t="n">
+        <v>210</v>
+      </c>
+      <c r="H3" t="n">
         <v>17</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>63</v>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" t="n">
         <v>4</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>0.235</v>
+        <v>0.3</v>
       </c>
       <c r="W3" t="n">
-        <v>0.316</v>
+        <v>0.315</v>
       </c>
       <c r="X3" t="n">
-        <v>0.551</v>
+        <v>0.615</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -757,19 +757,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.136</v>
+        <v>0.125</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G4" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>6</v>
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -802,22 +802,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0.159</v>
+        <v>0.146</v>
       </c>
       <c r="W4" t="n">
-        <v>0.188</v>
+        <v>0.189</v>
       </c>
       <c r="X4" t="n">
-        <v>0.347</v>
+        <v>0.335</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -835,88 +835,175 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>안승한</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>최용제</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>포수</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1077,7 +1164,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>페르난데스</t>
+          <t>허경민</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1086,73 +1173,73 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.31</v>
+        <v>0.315</v>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F2" t="n">
-        <v>329</v>
+        <v>256</v>
       </c>
       <c r="G2" t="n">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="H2" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I2" t="n">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="J2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="N2" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="U2" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>0.423</v>
+        <v>0.437</v>
       </c>
       <c r="W2" t="n">
-        <v>0.362</v>
+        <v>0.382</v>
       </c>
       <c r="X2" t="n">
-        <v>0.785</v>
+        <v>0.819</v>
       </c>
       <c r="Y2" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.31</v>
+        <v>0.327</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -1164,7 +1251,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>허경민</t>
+          <t>페르난데스</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1173,73 +1260,73 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.309</v>
+        <v>0.314</v>
       </c>
       <c r="E3" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F3" t="n">
-        <v>240</v>
+        <v>346</v>
       </c>
       <c r="G3" t="n">
-        <v>207</v>
+        <v>315</v>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I3" t="n">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="J3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="N3" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U3" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="V3" t="n">
-        <v>0.42</v>
+        <v>0.422</v>
       </c>
       <c r="W3" t="n">
-        <v>0.378</v>
+        <v>0.364</v>
       </c>
       <c r="X3" t="n">
-        <v>0.798</v>
+        <v>0.786</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.327</v>
+        <v>0.315</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1260,25 +1347,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.274</v>
+        <v>0.264</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F4" t="n">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G4" t="n">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="H4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -1287,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="M4" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N4" t="n">
         <v>23</v>
@@ -1308,25 +1395,25 @@
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0.514</v>
+        <v>0.485</v>
       </c>
       <c r="W4" t="n">
-        <v>0.353</v>
+        <v>0.337</v>
       </c>
       <c r="X4" t="n">
-        <v>0.867</v>
+        <v>0.822</v>
       </c>
       <c r="Y4" t="n">
         <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1425,7 +1512,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>서예일</t>
+          <t>박계범</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1434,73 +1521,73 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0.239</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F6" t="n">
+        <v>130</v>
+      </c>
+      <c r="G6" t="n">
+        <v>113</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16</v>
+      </c>
+      <c r="I6" t="n">
+        <v>27</v>
+      </c>
+      <c r="J6" t="n">
         <v>8</v>
       </c>
-      <c r="G6" t="n">
-        <v>8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
+        <v>41</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>11</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>30</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="Y6" t="n">
         <v>3</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1512,7 +1599,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>김재호</t>
+          <t>강승호</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1524,43 +1611,43 @@
         <v>0.235</v>
       </c>
       <c r="E7" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F7" t="n">
-        <v>143</v>
+        <v>275</v>
       </c>
       <c r="G7" t="n">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I7" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="O7" t="n">
         <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1569,28 +1656,28 @@
         <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="U7" t="n">
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>0.277</v>
+        <v>0.315</v>
       </c>
       <c r="W7" t="n">
-        <v>0.324</v>
+        <v>0.273</v>
       </c>
       <c r="X7" t="n">
-        <v>0.601</v>
+        <v>0.588</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.156</v>
+        <v>0.317</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1599,7 +1686,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>강승호</t>
+          <t>서예일</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1608,73 +1695,73 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.235</v>
+        <v>0.231</v>
       </c>
       <c r="E8" t="n">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>251</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>3</v>
       </c>
-      <c r="M8" t="n">
-        <v>79</v>
-      </c>
-      <c r="N8" t="n">
-        <v>37</v>
-      </c>
-      <c r="O8" t="n">
-        <v>4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>14</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>55</v>
-      </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0.315</v>
+        <v>0.308</v>
       </c>
       <c r="W8" t="n">
-        <v>0.273</v>
+        <v>0.231</v>
       </c>
       <c r="X8" t="n">
-        <v>0.588</v>
+        <v>0.539</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.317</v>
+        <v>0.5</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1686,7 +1773,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>박계범</t>
+          <t>김재호</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1695,76 +1782,76 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.226</v>
+        <v>0.227</v>
       </c>
       <c r="E9" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="G9" t="n">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>4</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>0.358</v>
+        <v>0.266</v>
       </c>
       <c r="W9" t="n">
-        <v>0.294</v>
+        <v>0.32</v>
       </c>
       <c r="X9" t="n">
-        <v>0.652</v>
+        <v>0.586</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z9" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0.2</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1782,22 +1869,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.204</v>
+        <v>0.205</v>
       </c>
       <c r="E10" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G10" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
@@ -1809,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
         <v>11</v>
@@ -1830,22 +1917,22 @@
         <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
-        <v>0.245</v>
+        <v>0.244</v>
       </c>
       <c r="W10" t="n">
-        <v>0.28</v>
+        <v>0.277</v>
       </c>
       <c r="X10" t="n">
-        <v>0.525</v>
+        <v>0.521</v>
       </c>
       <c r="Y10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z10" t="n">
         <v>0.2</v>
@@ -1956,16 +2043,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.1</v>
+        <v>0.091</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
+        <v>24</v>
+      </c>
+      <c r="G12" t="n">
         <v>22</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -2004,19 +2091,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U12" t="n">
         <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0.25</v>
+        <v>0.227</v>
       </c>
       <c r="W12" t="n">
-        <v>0.182</v>
+        <v>0.167</v>
       </c>
       <c r="X12" t="n">
-        <v>0.432</v>
+        <v>0.394</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -2541,7 +2628,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>양찬열</t>
+          <t>김인태</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2550,25 +2637,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.316</v>
+        <v>0.313</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="G4" t="n">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2577,49 +2664,49 @@
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0.553</v>
+        <v>0.391</v>
       </c>
       <c r="W4" t="n">
-        <v>0.395</v>
+        <v>0.413</v>
       </c>
       <c r="X4" t="n">
-        <v>0.948</v>
+        <v>0.804</v>
       </c>
       <c r="Y4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.222</v>
+        <v>0.303</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="5">
@@ -2628,7 +2715,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>김인태</t>
+          <t>양찬열</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2637,25 +2724,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.313</v>
+        <v>0.265</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="G5" t="n">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="H5" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2664,49 +2751,49 @@
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N5" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>0.391</v>
+        <v>0.449</v>
       </c>
       <c r="W5" t="n">
-        <v>0.413</v>
+        <v>0.345</v>
       </c>
       <c r="X5" t="n">
-        <v>0.804</v>
+        <v>0.794</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.303</v>
+        <v>0.231</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2715,7 +2802,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>김재환</t>
+          <t>조수행</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2724,73 +2811,73 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.232</v>
+        <v>0.238</v>
       </c>
       <c r="E6" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F6" t="n">
-        <v>313</v>
+        <v>90</v>
       </c>
       <c r="G6" t="n">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I6" t="n">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="N6" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>0.438</v>
+        <v>0.338</v>
       </c>
       <c r="W6" t="n">
-        <v>0.342</v>
+        <v>0.3</v>
       </c>
       <c r="X6" t="n">
-        <v>0.78</v>
+        <v>0.638</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.262</v>
+        <v>0.25</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -2802,7 +2889,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>조수행</t>
+          <t>김재환</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2811,73 +2898,73 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.229</v>
+        <v>0.23</v>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F7" t="n">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="G7" t="n">
-        <v>70</v>
+        <v>278</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="J7" t="n">
+        <v>17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>13</v>
+      </c>
+      <c r="M7" t="n">
+        <v>122</v>
+      </c>
+      <c r="N7" t="n">
+        <v>43</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>43</v>
+      </c>
+      <c r="R7" t="n">
         <v>3</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>22</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>0.314</v>
+        <v>0.439</v>
       </c>
       <c r="W7" t="n">
-        <v>0.291</v>
+        <v>0.338</v>
       </c>
       <c r="X7" t="n">
-        <v>0.605</v>
+        <v>0.777</v>
       </c>
       <c r="Y7" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.222</v>
+        <v>0.269</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -2898,16 +2985,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.222</v>
+        <v>0.221</v>
       </c>
       <c r="E8" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G8" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H8" t="n">
         <v>34</v>
@@ -2952,19 +3039,19 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.271</v>
+        <v>0.27</v>
       </c>
       <c r="W8" t="n">
-        <v>0.282</v>
+        <v>0.281</v>
       </c>
       <c r="X8" t="n">
-        <v>0.553</v>
+        <v>0.551</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.263</v>
+        <v>0.259</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -3072,16 +3159,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.167</v>
+        <v>0.091</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -3117,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
         <v>4</v>
@@ -3126,19 +3213,19 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.167</v>
+        <v>0.091</v>
       </c>
       <c r="W10" t="n">
-        <v>0.286</v>
+        <v>0.231</v>
       </c>
       <c r="X10" t="n">
-        <v>0.453</v>
+        <v>0.322</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -3162,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -3216,10 +3303,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2</v>
+        <v>0.143</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2</v>
+        <v>0.143</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -3468,7 +3555,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>스탁</t>
+          <t>이영하</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3478,17 +3565,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93 1/3</t>
+          <t>89</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.99</v>
+        <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -3500,31 +3587,31 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.583</v>
+        <v>0.545</v>
       </c>
       <c r="L2" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
         <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Q2" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="R2" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="S2" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3533,46 +3620,46 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Y2" t="n">
-        <v>1597</v>
+        <v>1580</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.261</v>
+        <v>0.275</v>
       </c>
       <c r="AA2" t="n">
         <v>14</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
@@ -3587,16 +3674,16 @@
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AP2" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.51</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="3">
@@ -3605,7 +3692,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>이영하</t>
+          <t>스탁</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3615,20 +3702,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>98</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.98</v>
+        <v>3.03</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -3637,31 +3724,31 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6</v>
+        <v>0.583</v>
       </c>
       <c r="L3" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="O3" t="n">
         <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R3" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3670,47 +3757,47 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="Y3" t="n">
-        <v>1516</v>
+        <v>1693</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="n">
         <v>7</v>
       </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>6</v>
-      </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
@@ -3724,16 +3811,16 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="AP3" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.07</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="4">
@@ -3742,7 +3829,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>곽빈</t>
+          <t>최원준</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3752,17 +3839,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76 1/3</t>
+          <t>89</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.13</v>
+        <v>3.54</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
@@ -3774,31 +3861,31 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3</v>
+        <v>0.364</v>
       </c>
       <c r="L4" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
+        <v>24</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q4" t="n">
         <v>45</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8</v>
-      </c>
-      <c r="P4" t="n">
-        <v>69</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>41</v>
       </c>
       <c r="R4" t="n">
         <v>35</v>
       </c>
       <c r="S4" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -3807,46 +3894,46 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="Y4" t="n">
-        <v>1408</v>
+        <v>1419</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.238</v>
+        <v>0.251</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
@@ -3861,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AP4" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.68</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -3879,7 +3966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>최원준</t>
+          <t>곽빈</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3889,20 +3976,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82 2/3</t>
+          <t>76 1/3</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.27</v>
+        <v>4.13</v>
       </c>
       <c r="F5" t="n">
         <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -3911,31 +3998,31 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L5" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N5" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R5" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S5" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -3944,46 +4031,46 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Y5" t="n">
-        <v>1322</v>
+        <v>1408</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.257</v>
+        <v>0.238</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
         <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
@@ -3998,16 +4085,16 @@
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AP5" t="n">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.48</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
@@ -4026,14 +4113,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51 2/3</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5.36</v>
+        <v>5.05</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -4045,31 +4132,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>0.429</v>
       </c>
       <c r="L6" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O6" t="n">
         <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R6" t="n">
         <v>29</v>
-      </c>
-      <c r="R6" t="n">
-        <v>28</v>
       </c>
       <c r="S6" t="n">
         <v>1.51</v>
@@ -4087,16 +4174,16 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="Y6" t="n">
-        <v>872</v>
+        <v>963</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.29</v>
+        <v>0.284</v>
       </c>
       <c r="AA6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
         <v>3</v>
@@ -4138,13 +4225,13 @@
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AP6" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="7">
@@ -4163,14 +4250,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>34 2/3</t>
+          <t>35 2/3</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5.19</v>
+        <v>5.55</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -4188,13 +4275,13 @@
         <v>0.333</v>
       </c>
       <c r="L7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O7" t="n">
         <v>4</v>
@@ -4203,13 +4290,13 @@
         <v>24</v>
       </c>
       <c r="Q7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S7" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -4224,13 +4311,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Y7" t="n">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.275</v>
+        <v>0.274</v>
       </c>
       <c r="AA7" t="n">
         <v>5</v>
@@ -4254,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI7" t="n">
         <v>1</v>
@@ -4275,13 +4362,13 @@
         <v>2</v>
       </c>
       <c r="AO7" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AP7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
@@ -4429,7 +4516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>홍건희</t>
+          <t>장원준</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4439,125 +4526,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="F9" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>5</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>149</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP9" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
-        <v>9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="L9" t="n">
-        <v>37</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>24</v>
-      </c>
-      <c r="R9" t="n">
-        <v>18</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3</v>
-      </c>
-      <c r="X9" t="n">
-        <v>160</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>609</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>28</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>1.64</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="10">
@@ -4566,7 +4655,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이승진</t>
+          <t>윤명준</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4576,20 +4665,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -4598,70 +4687,70 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M10" t="n">
+        <v>7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>20</v>
+      </c>
+      <c r="R10" t="n">
+        <v>19</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>345</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="n">
         <v>3</v>
       </c>
-      <c r="N10" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>8</v>
-      </c>
-      <c r="R10" t="n">
-        <v>8</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>131</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -4673,25 +4762,25 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AP10" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AQ10" t="n">
         <v>1</v>
@@ -4703,7 +4792,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>윤명준</t>
+          <t>박치국</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4713,53 +4802,53 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8.550000000000001</v>
+        <v>7.88</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="n">
         <v>7</v>
       </c>
-      <c r="N11" t="n">
+      <c r="R11" t="n">
         <v>7</v>
       </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>20</v>
-      </c>
-      <c r="R11" t="n">
-        <v>19</v>
-      </c>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -4774,25 +4863,25 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="Y11" t="n">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.329</v>
+        <v>0.125</v>
       </c>
       <c r="AA11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -4813,25 +4902,25 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AP11" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="12">
@@ -4979,7 +5068,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>권휘</t>
+          <t>이현승</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4989,127 +5078,125 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9 1/3</t>
+          <t>7 1/3</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.79</v>
+        <v>6.14</v>
       </c>
       <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
         <v>10</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
         <v>8</v>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="Q13" t="n">
         <v>5</v>
       </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>5</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>144</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
         <v>6</v>
       </c>
-      <c r="R13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>187</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10</v>
-      </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14">
@@ -5118,7 +5205,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>박정수</t>
+          <t>권휘</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5128,14 +5215,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9 1/3</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.69</v>
+        <v>5.79</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -5147,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -5155,28 +5242,28 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -5191,16 +5278,16 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="n">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.207</v>
+        <v>0.242</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -5209,13 +5296,13 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -5230,25 +5317,25 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.15</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="15">
@@ -5267,40 +5354,40 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14 1/3</t>
+          <t>15 1/3</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="F15" t="n">
+        <v>16</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
         <v>15</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>13</v>
-      </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
         <v>3</v>
@@ -5309,13 +5396,13 @@
         <v>8</v>
       </c>
       <c r="Q15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S15" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -5327,16 +5414,16 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="n">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.232</v>
+        <v>0.246</v>
       </c>
       <c r="AA15" t="n">
         <v>2</v>
@@ -5354,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -5372,7 +5459,7 @@
         <v>9</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -5381,13 +5468,13 @@
         <v>2</v>
       </c>
       <c r="AO15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="16">
@@ -5396,7 +5483,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>김명신</t>
+          <t>김동주</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5406,125 +5493,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>10 1/3</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.49</v>
+        <v>5.23</v>
       </c>
       <c r="F16" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>12</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>204</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
         <v>4</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>36</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="n">
-        <v>16</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP16" t="n">
         <v>13</v>
       </c>
-      <c r="R16" t="n">
-        <v>13</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>189</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>718</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>48</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>1.06</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="17">
@@ -5533,7 +5622,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>임창민</t>
+          <t>홍건희</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5543,127 +5632,125 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>37 1/3</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.09</v>
+        <v>4.34</v>
       </c>
       <c r="F17" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
+        <v>9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="L17" t="n">
+        <v>39</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>14</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>24</v>
+      </c>
+      <c r="R17" t="n">
+        <v>18</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3</v>
+      </c>
+      <c r="X17" t="n">
+        <v>167</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>627</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="AA17" t="n">
         <v>6</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>21</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL17" t="n">
         <v>18</v>
       </c>
-      <c r="Q17" t="n">
-        <v>11</v>
-      </c>
-      <c r="R17" t="n">
-        <v>10</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2</v>
-      </c>
-      <c r="X17" t="n">
-        <v>95</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>381</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.239</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>9</v>
-      </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" t="n">
         <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AP17" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.23</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="18">
@@ -5672,7 +5759,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>김동주</t>
+          <t>김강률</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5682,79 +5769,77 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18 2/3</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3.86</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K18" t="n">
+        <v>0.5</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
         <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q18" t="n">
         <v>9</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
+        <v>8</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>4</v>
       </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
       <c r="X18" t="n">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="Y18" t="n">
-        <v>160</v>
+        <v>309</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.2</v>
+        <v>0.297</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -5763,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
@@ -5781,25 +5866,25 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK18" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO18" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AP18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.9</v>
@@ -5811,7 +5896,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>김강률</t>
+          <t>임창민</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5821,29 +5906,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18 2/3</t>
+          <t>23 2/3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.86</v>
+        <v>3.8</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.5</v>
+        <v>6</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L19" t="n">
         <v>22</v>
@@ -5852,94 +5939,94 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P19" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q19" t="n">
+        <v>11</v>
+      </c>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>104</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>416</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL19" t="n">
         <v>9</v>
       </c>
-      <c r="R19" t="n">
-        <v>8</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>4</v>
-      </c>
-      <c r="X19" t="n">
-        <v>82</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>309</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.297</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>13</v>
-      </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO19" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="20">
@@ -5958,14 +6045,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.27</v>
+        <v>3.34</v>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -5974,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>10</v>
@@ -5983,25 +6070,25 @@
         <v>0.5</v>
       </c>
       <c r="L20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
         <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S20" t="n">
         <v>1.09</v>
@@ -6019,13 +6106,13 @@
         <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Y20" t="n">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.229</v>
+        <v>0.224</v>
       </c>
       <c r="AA20" t="n">
         <v>4</v>
@@ -6043,7 +6130,7 @@
         <v>2</v>
       </c>
       <c r="AF20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -6058,10 +6145,10 @@
         <v>2</v>
       </c>
       <c r="AK20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -6070,13 +6157,13 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AP20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="21">
@@ -6085,7 +6172,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>이현승</t>
+          <t>박정수</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6095,53 +6182,53 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6 1/3</t>
+          <t>19 1/3</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.84</v>
+        <v>3.26</v>
       </c>
       <c r="F21" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L21" t="n">
         <v>17</v>
       </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
         <v>8</v>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3</v>
-      </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q21" t="n">
         <v>7</v>
       </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S21" t="n">
-        <v>1.74</v>
+        <v>1.29</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -6153,22 +6240,22 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="n">
-        <v>116</v>
+        <v>326</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.296</v>
+        <v>0.236</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -6180,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -6195,25 +6282,25 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO21" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AP21" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="22">
@@ -6222,7 +6309,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>장원준</t>
+          <t>김명신</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6232,112 +6319,110 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>47 2/3</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.7</v>
+        <v>3.21</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>40</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="n">
+        <v>17</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>17</v>
+      </c>
+      <c r="R22" t="n">
+        <v>17</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>196</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>739</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD22" t="n">
         <v>5</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="n">
         <v>10</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="AL22" t="n">
         <v>5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>149</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>3</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -6346,13 +6431,13 @@
         <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="AP22" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.67</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="23">
@@ -6361,7 +6446,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>박치국</t>
+          <t>이승진</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6371,53 +6456,53 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
+        <v>11</v>
+      </c>
+      <c r="M23" t="n">
         <v>3</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
       <c r="N23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S23" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -6429,34 +6514,34 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="Y23" t="n">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.214</v>
+        <v>0.324</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -6468,28 +6553,28 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
